--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_6_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_6_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3029362.912128859</v>
+        <v>3028636.313257636</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5851605.615330306</v>
+        <v>5851605.6153303</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6400314.990003337</v>
+        <v>6400314.990003336</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
         <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19681332827224</v>
+        <v>403.143131904413</v>
       </c>
       <c r="F2" t="n">
         <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>128.8328199185727</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
         <v>105.9202115588047</v>
@@ -791,13 +791,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>195.3773027531635</v>
+        <v>91.42297362470754</v>
       </c>
       <c r="V3" t="n">
-        <v>57.74191845290325</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W3" t="n">
         <v>211.1008365810345</v>
@@ -819,25 +819,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.2638644077084</v>
       </c>
       <c r="G4" t="n">
-        <v>36.85943007906561</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.11896786784456</v>
+        <v>195.0202684437962</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
         <v>10.19681332827224</v>
@@ -910,13 +910,13 @@
         <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
-        <v>193.4795097704821</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>241.1230740755838</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>86.03470293268755</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -1135,22 +1135,22 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="F8" t="n">
-        <v>16.8201079258493</v>
+        <v>365.6596871453742</v>
       </c>
       <c r="G8" t="n">
         <v>4.641001266096112</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -1189,19 +1189,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>58.04477528617346</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1296,22 +1296,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>21.18139326179498</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>153.0251390105127</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1375,22 +1375,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D11" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E11" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F11" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G11" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H11" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722205</v>
       </c>
       <c r="I11" t="n">
-        <v>55.9893033297596</v>
+        <v>55.98930332975964</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U11" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V11" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W11" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X11" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y11" t="n">
-        <v>367.4283645950535</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C13" t="n">
         <v>139.8834969875627</v>
       </c>
       <c r="D13" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>129.8027652540258</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H13" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>85.68364371037913</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>54.92104941501641</v>
       </c>
       <c r="S13" t="n">
         <v>155.0289087125509</v>
       </c>
       <c r="T13" t="n">
-        <v>207.654309906727</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>241.6479458835353</v>
+        <v>193.6444958168028</v>
       </c>
       <c r="W13" t="n">
         <v>246.7800261198764</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.43469369461496</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="14">
@@ -1612,22 +1612,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D14" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E14" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F14" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G14" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H14" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I14" t="n">
-        <v>55.9893033297596</v>
+        <v>55.98930332975964</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U14" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V14" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W14" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X14" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y14" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="15">
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>49.56236697288405</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>103.7622202500672</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>85.68364371037917</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.92104941501638</v>
+        <v>54.92104941501641</v>
       </c>
       <c r="S16" t="n">
         <v>155.0289087125509</v>
@@ -1849,22 +1849,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D17" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E17" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F17" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G17" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H17" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I17" t="n">
-        <v>55.9893033297596</v>
+        <v>55.98930332975964</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U17" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V17" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W17" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X17" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y17" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>78.26818161153486</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F19" t="n">
         <v>133.4858729041767</v>
       </c>
       <c r="G19" t="n">
-        <v>136.078945437374</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H19" t="n">
-        <v>118.6124389162599</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I19" t="n">
-        <v>85.68364371037913</v>
+        <v>85.68364371037917</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.92104941501638</v>
+        <v>54.92104941501641</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>246.7800261198764</v>
+        <v>107.7276828060589</v>
       </c>
       <c r="X19" t="n">
         <v>206.4614817925755</v>
@@ -2086,22 +2086,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D20" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E20" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F20" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G20" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H20" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I20" t="n">
-        <v>55.9893033297596</v>
+        <v>55.98930332975964</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U20" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V20" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W20" t="n">
-        <v>350.4237561298454</v>
+        <v>350.4237561298449</v>
       </c>
       <c r="X20" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y20" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="21">
@@ -2241,25 +2241,25 @@
         <v>156.323767603766</v>
       </c>
       <c r="C22" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>129.8027652540258</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>85.68364371037913</v>
+        <v>33.12209635668033</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.92104941501638</v>
+        <v>54.92104941501641</v>
       </c>
       <c r="S22" t="n">
-        <v>154.5945185392515</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V22" t="n">
         <v>241.6479458835353</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X22" t="n">
         <v>206.4614817925755</v>
@@ -2323,22 +2323,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D23" t="n">
-        <v>370.9203488815327</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E23" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F23" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G23" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H23" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I23" t="n">
-        <v>55.9893033297596</v>
+        <v>55.98930332975964</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U23" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V23" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W23" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X23" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y23" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="24">
@@ -2478,16 +2478,16 @@
         <v>156.323767603766</v>
       </c>
       <c r="C25" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>122.4359450842181</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>33.12209635668033</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.92104941501638</v>
+        <v>54.92104941501641</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U25" t="n">
         <v>250.4712242529991</v>
@@ -2575,7 +2575,7 @@
         <v>278.3004706722211</v>
       </c>
       <c r="I26" t="n">
-        <v>55.98930332975954</v>
+        <v>55.98930332975955</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>104.429322727504</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T26" t="n">
         <v>190.4854774862717</v>
@@ -2623,7 +2623,7 @@
         <v>367.1380221263989</v>
       </c>
       <c r="Y26" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950539</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C28" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>85.68364371037907</v>
+        <v>33.12209635668177</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>54.92104941501633</v>
       </c>
       <c r="S28" t="n">
-        <v>95.57112106075263</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T28" t="n">
         <v>207.6543099067269</v>
@@ -2772,7 +2772,7 @@
         <v>250.4712242529991</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W28" t="n">
         <v>246.7800261198763</v>
@@ -2781,7 +2781,7 @@
         <v>206.4614817925754</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>278.3004706722211</v>
       </c>
       <c r="I29" t="n">
-        <v>55.98930332976064</v>
+        <v>55.98930332975955</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>190.4854774862717</v>
       </c>
       <c r="U29" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967484</v>
       </c>
       <c r="V29" t="n">
         <v>316.8402373905461</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.4602813681987</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C31" t="n">
         <v>139.8834969875626</v>
@@ -2964,10 +2964,10 @@
         <v>133.4858729041766</v>
       </c>
       <c r="G31" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.92104941501631</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>250.4712242529991</v>
+        <v>51.01225807796905</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W31" t="n">
         <v>246.7800261198763</v>
@@ -3018,7 +3018,7 @@
         <v>206.4614817925754</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>278.3004706722211</v>
       </c>
       <c r="I32" t="n">
-        <v>55.98930332975954</v>
+        <v>55.98930332975955</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>133.4858729041766</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.96422746054375</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>85.68364371037907</v>
+        <v>33.12209635668177</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>54.92104941501633</v>
       </c>
       <c r="S34" t="n">
         <v>155.0289087125508</v>
@@ -3249,7 +3249,7 @@
         <v>241.6479458835352</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X34" t="n">
         <v>206.4614817925754</v>
@@ -3426,16 +3426,16 @@
         <v>156.3237676037659</v>
       </c>
       <c r="C37" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>129.8027652540257</v>
       </c>
       <c r="F37" t="n">
-        <v>133.4858729041766</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>54.92104941501631</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>114.7036475792125</v>
+        <v>113.2692892302231</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V37" t="n">
         <v>241.6479458835352</v>
@@ -3520,7 +3520,7 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H38" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722222</v>
       </c>
       <c r="I38" t="n">
         <v>55.98930332975954</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>2.359502061319029</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>33.12209635668177</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>85.68364371037907</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>54.92104941501631</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>155.0289087125508</v>
@@ -3742,7 +3742,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>271.338631283351</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
@@ -3757,10 +3757,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3903,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>42.43741174507654</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -3963,10 +3963,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>63.51687139418777</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>174.1372571702753</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>254.489886823085</v>
@@ -4042,7 +4042,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>393.553766680214</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>92.33220597933663</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>99.26894242147424</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>787.6007001612206</v>
+        <v>959.9594387810986</v>
       </c>
       <c r="C2" t="n">
-        <v>377.4761094744907</v>
+        <v>953.8752521347727</v>
       </c>
       <c r="D2" t="n">
-        <v>377.0525836079553</v>
+        <v>953.4517262682373</v>
       </c>
       <c r="E2" t="n">
-        <v>366.7527721652561</v>
+        <v>546.2364415163049</v>
       </c>
       <c r="F2" t="n">
-        <v>349.7627641593477</v>
+        <v>529.2464335103965</v>
       </c>
       <c r="G2" t="n">
-        <v>345.0748840925839</v>
+        <v>120.5181494032287</v>
       </c>
       <c r="H2" t="n">
-        <v>34.16638672030194</v>
+        <v>120.5181494032287</v>
       </c>
       <c r="I2" t="n">
-        <v>34.16638672030194</v>
+        <v>34.16638672030185</v>
       </c>
       <c r="J2" t="n">
         <v>288.3518581880562</v>
       </c>
       <c r="K2" t="n">
-        <v>711.1608938517927</v>
+        <v>500.9836122027648</v>
       </c>
       <c r="L2" t="n">
-        <v>964.3492935560682</v>
+        <v>923.7926478665001</v>
       </c>
       <c r="M2" t="n">
-        <v>964.3492935560682</v>
+        <v>1346.601683530236</v>
       </c>
       <c r="N2" t="n">
-        <v>964.3492935560682</v>
+        <v>1346.601683530236</v>
       </c>
       <c r="O2" t="n">
-        <v>964.3492935560682</v>
+        <v>1346.601683530236</v>
       </c>
       <c r="P2" t="n">
-        <v>1387.158329219805</v>
+        <v>1346.601683530236</v>
       </c>
       <c r="Q2" t="n">
-        <v>1708.319336015097</v>
+        <v>1667.762690325528</v>
       </c>
       <c r="R2" t="n">
-        <v>1708.319336015097</v>
+        <v>1708.319336015092</v>
       </c>
       <c r="S2" t="n">
-        <v>1578.185174481185</v>
+        <v>1573.038260809193</v>
       </c>
       <c r="T2" t="n">
-        <v>1578.185174481185</v>
+        <v>1573.038260809193</v>
       </c>
       <c r="U2" t="n">
-        <v>1578.185174481185</v>
+        <v>1315.977769068703</v>
       </c>
       <c r="V2" t="n">
-        <v>1578.185174481185</v>
+        <v>966.140214405184</v>
       </c>
       <c r="W2" t="n">
-        <v>1194.424873616354</v>
+        <v>966.140214405184</v>
       </c>
       <c r="X2" t="n">
-        <v>793.781475785306</v>
+        <v>966.140214405184</v>
       </c>
       <c r="Y2" t="n">
-        <v>793.781475785306</v>
+        <v>966.140214405184</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.037348789341</v>
+        <v>712.9972286068362</v>
       </c>
       <c r="C3" t="n">
-        <v>470.0422775382866</v>
+        <v>579.0021573557819</v>
       </c>
       <c r="D3" t="n">
-        <v>353.145119757679</v>
+        <v>462.1049995751744</v>
       </c>
       <c r="E3" t="n">
-        <v>232.652303750007</v>
+        <v>341.6121835675024</v>
       </c>
       <c r="F3" t="n">
-        <v>232.652303750007</v>
+        <v>232.6523037500069</v>
       </c>
       <c r="G3" t="n">
-        <v>125.6621910643457</v>
+        <v>125.6621910643456</v>
       </c>
       <c r="H3" t="n">
-        <v>54.91497810006176</v>
+        <v>54.91497810006167</v>
       </c>
       <c r="I3" t="n">
-        <v>34.16638672030194</v>
+        <v>34.16638672030185</v>
       </c>
       <c r="J3" t="n">
-        <v>226.9792442829352</v>
+        <v>226.9792442829351</v>
       </c>
       <c r="K3" t="n">
-        <v>226.9792442829352</v>
+        <v>649.7882799466704</v>
       </c>
       <c r="L3" t="n">
-        <v>226.9792442829352</v>
+        <v>906.1063163047438</v>
       </c>
       <c r="M3" t="n">
-        <v>226.9792442829352</v>
+        <v>906.1063163047438</v>
       </c>
       <c r="N3" t="n">
-        <v>649.7882799466717</v>
+        <v>906.1063163047438</v>
       </c>
       <c r="O3" t="n">
-        <v>906.1063163047468</v>
+        <v>906.1063163047438</v>
       </c>
       <c r="P3" t="n">
-        <v>1328.915351968483</v>
+        <v>1328.915351968479</v>
       </c>
       <c r="Q3" t="n">
-        <v>1678.759816652467</v>
+        <v>1678.759816652462</v>
       </c>
       <c r="R3" t="n">
-        <v>1708.319336015097</v>
+        <v>1708.319336015092</v>
       </c>
       <c r="S3" t="n">
-        <v>1708.319336015097</v>
+        <v>1708.319336015092</v>
       </c>
       <c r="T3" t="n">
-        <v>1548.977472202105</v>
+        <v>1708.319336015092</v>
       </c>
       <c r="U3" t="n">
-        <v>1351.626661340324</v>
+        <v>1615.972898010337</v>
       </c>
       <c r="V3" t="n">
-        <v>1293.301491185876</v>
+        <v>1402.261371003371</v>
       </c>
       <c r="W3" t="n">
-        <v>1080.068322922205</v>
+        <v>1189.0282027397</v>
       </c>
       <c r="X3" t="n">
-        <v>903.7423410610976</v>
+        <v>1012.702220878593</v>
       </c>
       <c r="Y3" t="n">
-        <v>744.3403814249276</v>
+        <v>853.3002612424228</v>
       </c>
     </row>
     <row r="4">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>347.2388248476775</v>
+        <v>512.9017504596683</v>
       </c>
       <c r="C4" t="n">
-        <v>347.2388248476775</v>
+        <v>341.8083780213848</v>
       </c>
       <c r="D4" t="n">
-        <v>187.7441801705875</v>
+        <v>341.8083780213848</v>
       </c>
       <c r="E4" t="n">
-        <v>187.7441801705875</v>
+        <v>180.8975628897043</v>
       </c>
       <c r="F4" t="n">
-        <v>187.7441801705875</v>
+        <v>34.16638672030185</v>
       </c>
       <c r="G4" t="n">
-        <v>150.5124326159758</v>
+        <v>34.16638672030185</v>
       </c>
       <c r="H4" t="n">
-        <v>150.5124326159758</v>
+        <v>34.16638672030185</v>
       </c>
       <c r="I4" t="n">
-        <v>34.16638672030194</v>
+        <v>34.16638672030185</v>
       </c>
       <c r="J4" t="n">
-        <v>48.24893612551246</v>
+        <v>48.24893612551237</v>
       </c>
       <c r="K4" t="n">
         <v>202.8012638477504</v>
       </c>
       <c r="L4" t="n">
-        <v>462.698364127811</v>
+        <v>462.6983641278109</v>
       </c>
       <c r="M4" t="n">
         <v>751.9624205683042</v>
@@ -4515,25 +4515,25 @@
         <v>1478.292565016552</v>
       </c>
       <c r="S4" t="n">
-        <v>1291.900796896462</v>
+        <v>1478.292565016552</v>
       </c>
       <c r="T4" t="n">
-        <v>1052.352057873164</v>
+        <v>1478.292565016552</v>
       </c>
       <c r="U4" t="n">
-        <v>1052.352057873164</v>
+        <v>1478.292565016552</v>
       </c>
       <c r="V4" t="n">
-        <v>1052.352057873164</v>
+        <v>1204.406819956074</v>
       </c>
       <c r="W4" t="n">
-        <v>773.2823933820384</v>
+        <v>925.337155464948</v>
       </c>
       <c r="X4" t="n">
-        <v>534.9385312417219</v>
+        <v>925.337155464948</v>
       </c>
       <c r="Y4" t="n">
-        <v>534.9385312417219</v>
+        <v>700.6014568537126</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1083.765153991655</v>
+        <v>570.6426643811656</v>
       </c>
       <c r="C5" t="n">
-        <v>673.6405633049252</v>
+        <v>564.5584777348397</v>
       </c>
       <c r="D5" t="n">
-        <v>673.2170374383898</v>
+        <v>160.0945478279002</v>
       </c>
       <c r="E5" t="n">
-        <v>662.9172259956905</v>
+        <v>149.794736385201</v>
       </c>
       <c r="F5" t="n">
-        <v>645.9272179897821</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G5" t="n">
-        <v>237.1989338826143</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>176.0078249962696</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>692.8507596625949</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L5" t="n">
-        <v>1209.69369432892</v>
+        <v>497.1688317915616</v>
       </c>
       <c r="M5" t="n">
-        <v>1726.536628995245</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="N5" t="n">
-        <v>1726.536628995245</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O5" t="n">
-        <v>1726.536628995245</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P5" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q5" t="n">
         <v>2047.697635790537</v>
@@ -4597,22 +4597,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>1730.766722221062</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>1473.706230480572</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V5" t="n">
-        <v>1473.706230480572</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W5" t="n">
-        <v>1089.945929615741</v>
+        <v>1569.212905409372</v>
       </c>
       <c r="X5" t="n">
-        <v>1089.945929615741</v>
+        <v>1168.569507578324</v>
       </c>
       <c r="Y5" t="n">
-        <v>1089.945929615741</v>
+        <v>767.6328345264143</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>187.8810127971431</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L6" t="n">
-        <v>704.7239474634683</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="M6" t="n">
-        <v>1221.566882129794</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="N6" t="n">
-        <v>1221.566882129794</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="O6" t="n">
-        <v>1221.566882129794</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P6" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>496.454895038016</v>
+        <v>792.7551724179984</v>
       </c>
       <c r="C7" t="n">
-        <v>325.3615225997325</v>
+        <v>792.7551724179984</v>
       </c>
       <c r="D7" t="n">
-        <v>325.3615225997325</v>
+        <v>633.2605277409085</v>
       </c>
       <c r="E7" t="n">
-        <v>325.3615225997325</v>
+        <v>472.349712609228</v>
       </c>
       <c r="F7" t="n">
-        <v>325.3615225997325</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="G7" t="n">
-        <v>158.1111315252759</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
         <v>158.1111315252759</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1203.093116471976</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>959.5344557895678</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>959.5344557895678</v>
+        <v>1292.094317759326</v>
       </c>
       <c r="X7" t="n">
-        <v>721.1905936492512</v>
+        <v>1205.190577423278</v>
       </c>
       <c r="Y7" t="n">
-        <v>496.454895038016</v>
+        <v>980.4548788120428</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>881.5511617534476</v>
+        <v>923.0058757140191</v>
       </c>
       <c r="C8" t="n">
-        <v>471.4265710667177</v>
+        <v>916.9216890676933</v>
       </c>
       <c r="D8" t="n">
-        <v>471.0030452001823</v>
+        <v>512.4577591607538</v>
       </c>
       <c r="E8" t="n">
-        <v>460.703233757483</v>
+        <v>502.1579477180545</v>
       </c>
       <c r="F8" t="n">
-        <v>443.7132257515746</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G8" t="n">
-        <v>439.0253456848109</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H8" t="n">
         <v>128.1168483125289</v>
@@ -4810,16 +4810,16 @@
         <v>558.6080202959273</v>
       </c>
       <c r="L8" t="n">
-        <v>558.6080202959273</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="M8" t="n">
-        <v>558.6080202959273</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N8" t="n">
-        <v>1075.450954962253</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O8" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P8" t="n">
         <v>2088.254281480102</v>
@@ -4837,19 +4837,19 @@
         <v>1730.766722221062</v>
       </c>
       <c r="U8" t="n">
-        <v>1672.135636073412</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V8" t="n">
-        <v>1672.135636073412</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W8" t="n">
-        <v>1288.375335208581</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X8" t="n">
-        <v>887.731937377533</v>
+        <v>1330.123324390014</v>
       </c>
       <c r="Y8" t="n">
-        <v>887.731937377533</v>
+        <v>929.1866513381045</v>
       </c>
     </row>
     <row r="9">
@@ -4883,19 +4883,19 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>158.3214934345131</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M9" t="n">
-        <v>158.3214934345131</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N9" t="n">
-        <v>675.1644281008383</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O9" t="n">
         <v>1192.007362767164</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>674.725621259144</v>
+        <v>212.8584580678856</v>
       </c>
       <c r="C10" t="n">
-        <v>503.6322488208605</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D10" t="n">
-        <v>344.1376041437705</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E10" t="n">
-        <v>344.1376041437705</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F10" t="n">
-        <v>179.5064782543618</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4989,25 +4989,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1145.223475107064</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U10" t="n">
-        <v>862.4253276531883</v>
+        <v>1416.593134765086</v>
       </c>
       <c r="V10" t="n">
-        <v>862.4253276531883</v>
+        <v>1142.707389704608</v>
       </c>
       <c r="W10" t="n">
-        <v>862.4253276531883</v>
+        <v>863.6377252134819</v>
       </c>
       <c r="X10" t="n">
-        <v>862.4253276531883</v>
+        <v>625.2938630731653</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.4253276531883</v>
+        <v>400.5581644619299</v>
       </c>
     </row>
     <row r="11">
@@ -5020,19 +5020,19 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C11" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D11" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E11" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F11" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489443</v>
       </c>
       <c r="G11" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764613</v>
       </c>
       <c r="H11" t="n">
         <v>149.7985495388648</v>
@@ -5080,10 +5080,10 @@
         <v>3816.98692220683</v>
       </c>
       <c r="W11" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X11" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y11" t="n">
         <v>2721.037282963095</v>
@@ -5120,28 +5120,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L12" t="n">
-        <v>1402.950983437843</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M12" t="n">
-        <v>1548.467481689963</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N12" t="n">
-        <v>1548.467481689963</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O12" t="n">
-        <v>1548.467481689963</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P12" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q12" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
         <v>2139.732893541123</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>701.7114768544699</v>
+        <v>637.9417588857131</v>
       </c>
       <c r="C13" t="n">
-        <v>560.4150152508712</v>
+        <v>496.6452972821144</v>
       </c>
       <c r="D13" t="n">
-        <v>430.7172814084661</v>
+        <v>496.6452972821144</v>
       </c>
       <c r="E13" t="n">
-        <v>299.6033771114704</v>
+        <v>365.5313929851186</v>
       </c>
       <c r="F13" t="n">
-        <v>299.6033771114704</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="G13" t="n">
-        <v>299.6033771114704</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
@@ -5202,13 +5202,13 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K13" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L13" t="n">
-        <v>609.3875320253557</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M13" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N13" t="n">
         <v>1237.898275478248</v>
@@ -5223,28 +5223,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R13" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S13" t="n">
-        <v>1699.679355498665</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T13" t="n">
-        <v>1489.927527310052</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="U13" t="n">
-        <v>1236.92629069086</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="V13" t="n">
-        <v>992.8374564650672</v>
+        <v>1448.603047183696</v>
       </c>
       <c r="W13" t="n">
-        <v>743.5647028086264</v>
+        <v>1199.330293527255</v>
       </c>
       <c r="X13" t="n">
-        <v>743.5647028086264</v>
+        <v>990.7833422216231</v>
       </c>
       <c r="Y13" t="n">
-        <v>701.7114768544699</v>
+        <v>795.8445544450726</v>
       </c>
     </row>
     <row r="14">
@@ -5269,7 +5269,7 @@
         <v>809.8415093489451</v>
       </c>
       <c r="G14" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H14" t="n">
         <v>149.7985495388648</v>
@@ -5317,10 +5317,10 @@
         <v>3816.98692220683</v>
       </c>
       <c r="W14" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X14" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y14" t="n">
         <v>2721.037282963096</v>
@@ -5366,16 +5366,16 @@
         <v>1402.950983437843</v>
       </c>
       <c r="M15" t="n">
-        <v>1760.328909494509</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N15" t="n">
-        <v>1760.328909494509</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O15" t="n">
-        <v>1760.328909494509</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="P15" t="n">
-        <v>1760.328909494509</v>
+        <v>1964.656875926373</v>
       </c>
       <c r="Q15" t="n">
         <v>2110.173374178493</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>284.6031562365286</v>
+        <v>284.6031562365282</v>
       </c>
       <c r="C16" t="n">
-        <v>143.3066946329299</v>
+        <v>284.6031562365282</v>
       </c>
       <c r="D16" t="n">
-        <v>143.3066946329299</v>
+        <v>284.6031562365282</v>
       </c>
       <c r="E16" t="n">
-        <v>143.3066946329299</v>
+        <v>284.6031562365282</v>
       </c>
       <c r="F16" t="n">
-        <v>143.3066946329299</v>
+        <v>284.6031562365282</v>
       </c>
       <c r="G16" t="n">
-        <v>93.2436976906228</v>
+        <v>284.6031562365282</v>
       </c>
       <c r="H16" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516119</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
@@ -5439,13 +5439,13 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K16" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L16" t="n">
-        <v>609.3875320253557</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M16" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N16" t="n">
         <v>1237.898275478248</v>
@@ -5472,16 +5472,16 @@
         <v>1181.450483200945</v>
       </c>
       <c r="V16" t="n">
-        <v>937.3616489751518</v>
+        <v>937.3616489751514</v>
       </c>
       <c r="W16" t="n">
-        <v>688.0888953187109</v>
+        <v>688.0888953187106</v>
       </c>
       <c r="X16" t="n">
-        <v>479.5419440130791</v>
+        <v>479.5419440130787</v>
       </c>
       <c r="Y16" t="n">
-        <v>284.6031562365286</v>
+        <v>284.6031562365282</v>
       </c>
     </row>
     <row r="17">
@@ -5503,10 +5503,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F17" t="n">
-        <v>809.8415093489451</v>
+        <v>809.8415093489452</v>
       </c>
       <c r="G17" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H17" t="n">
         <v>149.7985495388648</v>
@@ -5551,10 +5551,10 @@
         <v>4137.027566035665</v>
       </c>
       <c r="V17" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206831</v>
       </c>
       <c r="W17" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X17" t="n">
         <v>3092.177045180321</v>
@@ -5597,22 +5597,22 @@
         <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>567.0943644493211</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>1228.182536368609</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.182536368609</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N18" t="n">
-        <v>1228.182536368609</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O18" t="n">
-        <v>1228.182536368609</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="P18" t="n">
-        <v>1789.888428857139</v>
+        <v>1964.656875926373</v>
       </c>
       <c r="Q18" t="n">
         <v>2139.732893541123</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.891072405966</v>
+        <v>973.9991721489658</v>
       </c>
       <c r="C19" t="n">
-        <v>571.891072405966</v>
+        <v>832.7027105453672</v>
       </c>
       <c r="D19" t="n">
-        <v>571.891072405966</v>
+        <v>703.0049767029619</v>
       </c>
       <c r="E19" t="n">
-        <v>571.891072405966</v>
+        <v>571.8910724059662</v>
       </c>
       <c r="F19" t="n">
-        <v>437.0568573512421</v>
+        <v>437.0568573512422</v>
       </c>
       <c r="G19" t="n">
         <v>299.6033771114704</v>
       </c>
       <c r="H19" t="n">
-        <v>179.7928327516118</v>
+        <v>179.7928327516119</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5676,13 +5676,13 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K19" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L19" t="n">
-        <v>609.3875320253557</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M19" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N19" t="n">
         <v>1237.898275478248</v>
@@ -5700,25 +5700,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S19" t="n">
-        <v>1800.798405294154</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T19" t="n">
-        <v>1800.798405294154</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="U19" t="n">
-        <v>1547.797168674963</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="V19" t="n">
-        <v>1303.70833444917</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="W19" t="n">
-        <v>1054.435580792729</v>
+        <v>1535.387706790508</v>
       </c>
       <c r="X19" t="n">
-        <v>845.8886294870972</v>
+        <v>1326.840755484876</v>
       </c>
       <c r="Y19" t="n">
-        <v>650.9498417105467</v>
+        <v>1131.901967708325</v>
       </c>
     </row>
     <row r="20">
@@ -5740,10 +5740,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F20" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489451</v>
       </c>
       <c r="G20" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H20" t="n">
         <v>149.7985495388648</v>
@@ -5755,7 +5755,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5791,13 +5791,13 @@
         <v>3816.98692220683</v>
       </c>
       <c r="W20" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X20" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y20" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M21" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N21" t="n">
-        <v>874.0699105066985</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O21" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>839.1649570942417</v>
+        <v>126.7003606771686</v>
       </c>
       <c r="C22" t="n">
-        <v>697.868495490643</v>
+        <v>126.7003606771686</v>
       </c>
       <c r="D22" t="n">
-        <v>568.1707616482379</v>
+        <v>126.7003606771686</v>
       </c>
       <c r="E22" t="n">
-        <v>437.0568573512421</v>
+        <v>126.7003606771686</v>
       </c>
       <c r="F22" t="n">
-        <v>437.0568573512421</v>
+        <v>126.7003606771686</v>
       </c>
       <c r="G22" t="n">
-        <v>299.6033771114704</v>
+        <v>126.7003606771686</v>
       </c>
       <c r="H22" t="n">
-        <v>179.7928327516118</v>
+        <v>126.7003606771686</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5913,13 +5913,13 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K22" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L22" t="n">
-        <v>609.3875320253557</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M22" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N22" t="n">
         <v>1237.898275478248</v>
@@ -5937,25 +5937,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S22" t="n">
-        <v>1644.642325961577</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T22" t="n">
-        <v>1644.642325961577</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U22" t="n">
-        <v>1644.642325961577</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V22" t="n">
-        <v>1400.553491735784</v>
+        <v>937.3616489751514</v>
       </c>
       <c r="W22" t="n">
-        <v>1400.553491735784</v>
+        <v>688.0888953187106</v>
       </c>
       <c r="X22" t="n">
-        <v>1192.006540430152</v>
+        <v>479.5419440130787</v>
       </c>
       <c r="Y22" t="n">
-        <v>997.0677526536012</v>
+        <v>284.6031562365282</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C23" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D23" t="n">
         <v>1585.618315208991</v>
@@ -5977,10 +5977,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F23" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489449</v>
       </c>
       <c r="G23" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H23" t="n">
         <v>149.7985495388648</v>
@@ -5989,10 +5989,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K23" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
@@ -6004,7 +6004,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O23" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P23" t="n">
         <v>4300.467232046283</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159924</v>
       </c>
       <c r="T23" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U23" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V23" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W23" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176682</v>
       </c>
       <c r="X23" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y23" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="N24" t="n">
-        <v>936.2207783851894</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O24" t="n">
-        <v>1640.177868931084</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P24" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q24" t="n">
         <v>2139.732893541123</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3298.957717898257</v>
+        <v>126.7003606771686</v>
       </c>
       <c r="C25" t="n">
-        <v>3157.661256294658</v>
+        <v>126.7003606771686</v>
       </c>
       <c r="D25" t="n">
-        <v>3033.988584492417</v>
+        <v>126.7003606771686</v>
       </c>
       <c r="E25" t="n">
-        <v>3033.988584492417</v>
+        <v>126.7003606771686</v>
       </c>
       <c r="F25" t="n">
-        <v>2899.154369437693</v>
+        <v>126.7003606771686</v>
       </c>
       <c r="G25" t="n">
-        <v>2899.154369437693</v>
+        <v>126.7003606771686</v>
       </c>
       <c r="H25" t="n">
-        <v>2899.154369437693</v>
+        <v>126.7003606771686</v>
       </c>
       <c r="I25" t="n">
-        <v>2899.154369437693</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>2942.440871151978</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K25" t="n">
-        <v>3126.197151183291</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L25" t="n">
-        <v>3415.298203772426</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M25" t="n">
-        <v>3733.766212521994</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N25" t="n">
-        <v>4043.808947225319</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O25" t="n">
-        <v>4332.573509860867</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P25" t="n">
-        <v>4567.452902419554</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R25" t="n">
-        <v>4606.709077041224</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S25" t="n">
-        <v>4606.709077041224</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T25" t="n">
-        <v>4606.709077041224</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U25" t="n">
-        <v>4353.707840422033</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V25" t="n">
-        <v>4109.61900619624</v>
+        <v>937.3616489751514</v>
       </c>
       <c r="W25" t="n">
-        <v>3860.346252539799</v>
+        <v>688.0888953187106</v>
       </c>
       <c r="X25" t="n">
-        <v>3651.799301234167</v>
+        <v>479.5419440130787</v>
       </c>
       <c r="Y25" t="n">
-        <v>3456.860513457616</v>
+        <v>284.6031562365282</v>
       </c>
     </row>
     <row r="26">
@@ -6253,22 +6253,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4556.700720159924</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T26" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U26" t="n">
-        <v>4137.027566035663</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V26" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W26" t="n">
-        <v>3463.023532176682</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X26" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y26" t="n">
         <v>2721.037282963095</v>
@@ -6305,25 +6305,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>562.1177108836107</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M27" t="n">
-        <v>562.1177108836107</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N27" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q27" t="n">
         <v>2139.732893541123</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>839.1649570942413</v>
+        <v>126.70036067717</v>
       </c>
       <c r="C28" t="n">
-        <v>697.8684954906428</v>
+        <v>126.70036067717</v>
       </c>
       <c r="D28" t="n">
-        <v>568.1707616482377</v>
+        <v>126.70036067717</v>
       </c>
       <c r="E28" t="n">
-        <v>437.056857351242</v>
+        <v>126.70036067717</v>
       </c>
       <c r="F28" t="n">
-        <v>437.056857351242</v>
+        <v>126.70036067717</v>
       </c>
       <c r="G28" t="n">
-        <v>299.6033771114703</v>
+        <v>126.70036067717</v>
       </c>
       <c r="H28" t="n">
-        <v>179.7928327516118</v>
+        <v>126.70036067717</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6408,28 +6408,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R28" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S28" t="n">
-        <v>1759.737726864118</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="T28" t="n">
-        <v>1549.985898675505</v>
+        <v>1434.451719820137</v>
       </c>
       <c r="U28" t="n">
-        <v>1296.984662056314</v>
+        <v>1181.450483200946</v>
       </c>
       <c r="V28" t="n">
-        <v>1296.984662056314</v>
+        <v>937.3616489751524</v>
       </c>
       <c r="W28" t="n">
-        <v>1047.711908399873</v>
+        <v>688.0888953187117</v>
       </c>
       <c r="X28" t="n">
-        <v>839.1649570942413</v>
+        <v>479.54194401308</v>
       </c>
       <c r="Y28" t="n">
-        <v>839.1649570942413</v>
+        <v>284.6031562365296</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.61301413329</v>
       </c>
       <c r="C29" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D29" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E29" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F29" t="n">
-        <v>809.8415093489459</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G29" t="n">
-        <v>430.910136076463</v>
+        <v>430.9101360764619</v>
       </c>
       <c r="H29" t="n">
-        <v>149.7985495388659</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6496,19 +6496,19 @@
         <v>4364.291146941469</v>
       </c>
       <c r="U29" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035663</v>
       </c>
       <c r="V29" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W29" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176682</v>
       </c>
       <c r="X29" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y29" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>874.0699105066985</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M30" t="n">
-        <v>874.0699105066985</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N30" t="n">
-        <v>874.0699105066985</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O30" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.732893541123</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>767.6394927281178</v>
+        <v>749.9965568482046</v>
       </c>
       <c r="C31" t="n">
-        <v>626.3430311245191</v>
+        <v>608.7000952446059</v>
       </c>
       <c r="D31" t="n">
-        <v>496.645297282114</v>
+        <v>479.0023614022008</v>
       </c>
       <c r="E31" t="n">
-        <v>365.5313929851184</v>
+        <v>347.8884571052051</v>
       </c>
       <c r="F31" t="n">
-        <v>230.6971779303945</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="G31" t="n">
-        <v>93.2436976906228</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="H31" t="n">
         <v>93.2436976906228</v>
@@ -6645,28 +6645,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R31" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S31" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T31" t="n">
-        <v>1591.046577105541</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="U31" t="n">
-        <v>1338.045340486351</v>
+        <v>1804.74667937198</v>
       </c>
       <c r="V31" t="n">
-        <v>1338.045340486351</v>
+        <v>1560.657845146187</v>
       </c>
       <c r="W31" t="n">
-        <v>1088.77258682991</v>
+        <v>1311.385091489746</v>
       </c>
       <c r="X31" t="n">
-        <v>880.2256355242781</v>
+        <v>1102.838140184115</v>
       </c>
       <c r="Y31" t="n">
-        <v>880.2256355242781</v>
+        <v>907.8993524075642</v>
       </c>
     </row>
     <row r="32">
@@ -6688,16 +6688,16 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F32" t="n">
-        <v>809.8415093489455</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G32" t="n">
-        <v>430.9101360764624</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H32" t="n">
-        <v>149.7985495388647</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I32" t="n">
-        <v>93.24369769062278</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
         <v>347.4291691583771</v>
@@ -6724,13 +6724,13 @@
         <v>4621.628238841575</v>
       </c>
       <c r="R32" t="n">
-        <v>4662.184884531139</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4556.700720159924</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T32" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U32" t="n">
         <v>4137.027566035664</v>
@@ -6745,7 +6745,7 @@
         <v>3092.17704518032</v>
       </c>
       <c r="Y32" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="33">
@@ -6770,34 +6770,34 @@
         <v>291.7296147203278</v>
       </c>
       <c r="G33" t="n">
-        <v>184.7395020346665</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H33" t="n">
         <v>113.9922890703826</v>
       </c>
       <c r="I33" t="n">
-        <v>93.24369769062278</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.24369769062278</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.24369769062278</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>754.331869609911</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M33" t="n">
-        <v>754.331869609911</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N33" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>589.3517173828858</v>
+        <v>126.70036067717</v>
       </c>
       <c r="C34" t="n">
-        <v>589.3517173828858</v>
+        <v>126.70036067717</v>
       </c>
       <c r="D34" t="n">
-        <v>459.6539835404807</v>
+        <v>126.70036067717</v>
       </c>
       <c r="E34" t="n">
-        <v>459.6539835404807</v>
+        <v>126.70036067717</v>
       </c>
       <c r="F34" t="n">
-        <v>324.8197684857568</v>
+        <v>126.70036067717</v>
       </c>
       <c r="G34" t="n">
-        <v>299.6033771114702</v>
+        <v>126.70036067717</v>
       </c>
       <c r="H34" t="n">
-        <v>179.7928327516117</v>
+        <v>126.70036067717</v>
       </c>
       <c r="I34" t="n">
-        <v>93.24369769062278</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K34" t="n">
         <v>320.2864794362206</v>
@@ -6882,28 +6882,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R34" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S34" t="n">
-        <v>1699.679355498665</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="T34" t="n">
-        <v>1489.927527310052</v>
+        <v>1434.451719820137</v>
       </c>
       <c r="U34" t="n">
-        <v>1236.926290690861</v>
+        <v>1181.450483200946</v>
       </c>
       <c r="V34" t="n">
-        <v>992.8374564650679</v>
+        <v>937.3616489751524</v>
       </c>
       <c r="W34" t="n">
-        <v>992.8374564650679</v>
+        <v>688.0888953187117</v>
       </c>
       <c r="X34" t="n">
-        <v>784.2905051594362</v>
+        <v>479.54194401308</v>
       </c>
       <c r="Y34" t="n">
-        <v>589.3517173828858</v>
+        <v>284.6031562365296</v>
       </c>
     </row>
     <row r="35">
@@ -6922,10 +6922,10 @@
         <v>1585.618315208991</v>
       </c>
       <c r="E35" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F35" t="n">
-        <v>809.8415093489448</v>
+        <v>809.8415093489449</v>
       </c>
       <c r="G35" t="n">
         <v>430.9101360764619</v>
@@ -6967,7 +6967,7 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T35" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U35" t="n">
         <v>4137.027566035664</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C36" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D36" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E36" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F36" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G36" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H36" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I36" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>2615.69568868064</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>3071.501944945938</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>3071.501944945938</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M36" t="n">
-        <v>3914.479025640505</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N36" t="n">
-        <v>3914.479025640505</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O36" t="n">
-        <v>4618.436116186399</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P36" t="n">
-        <v>4632.62536516851</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
-        <v>4632.62536516851</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S36" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T36" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U36" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V36" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W36" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X36" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y36" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>630.186012488346</v>
+        <v>224.3576019876185</v>
       </c>
       <c r="C37" t="n">
-        <v>488.8895508847475</v>
+        <v>224.3576019876185</v>
       </c>
       <c r="D37" t="n">
-        <v>359.1918170423423</v>
+        <v>224.3576019876185</v>
       </c>
       <c r="E37" t="n">
-        <v>228.0779127453467</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
         <v>93.2436976906228</v>
@@ -7119,28 +7119,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R37" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S37" t="n">
-        <v>1684.936135012122</v>
+        <v>1741.860789319198</v>
       </c>
       <c r="T37" t="n">
-        <v>1684.936135012122</v>
+        <v>1532.108961130585</v>
       </c>
       <c r="U37" t="n">
-        <v>1684.936135012122</v>
+        <v>1279.107724511394</v>
       </c>
       <c r="V37" t="n">
-        <v>1440.847300786329</v>
+        <v>1035.018890285601</v>
       </c>
       <c r="W37" t="n">
-        <v>1191.574547129888</v>
+        <v>785.7461366291601</v>
       </c>
       <c r="X37" t="n">
-        <v>983.027595824256</v>
+        <v>577.1991853235284</v>
       </c>
       <c r="Y37" t="n">
-        <v>788.0888080477056</v>
+        <v>382.260397546978</v>
       </c>
     </row>
     <row r="38">
@@ -7153,19 +7153,19 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C38" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D38" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E38" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F38" t="n">
-        <v>809.8415093489449</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G38" t="n">
-        <v>430.9101360764619</v>
+        <v>430.910136076463</v>
       </c>
       <c r="H38" t="n">
         <v>149.7985495388648</v>
@@ -7204,22 +7204,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T38" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U38" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V38" t="n">
         <v>3816.98692220683</v>
       </c>
       <c r="W38" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X38" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y38" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L39" t="n">
-        <v>563.2392029380319</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="M39" t="n">
-        <v>1406.216283632599</v>
+        <v>1790.121807867111</v>
       </c>
       <c r="N39" t="n">
-        <v>1406.216283632599</v>
+        <v>1790.121807867111</v>
       </c>
       <c r="O39" t="n">
-        <v>2110.173374178493</v>
+        <v>1790.121807867111</v>
       </c>
       <c r="P39" t="n">
-        <v>2110.173374178493</v>
+        <v>1790.121807867111</v>
       </c>
       <c r="Q39" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>126.70036067717</v>
+        <v>182.1761681670855</v>
       </c>
       <c r="C40" t="n">
-        <v>126.70036067717</v>
+        <v>182.1761681670855</v>
       </c>
       <c r="D40" t="n">
-        <v>126.70036067717</v>
+        <v>182.1761681670855</v>
       </c>
       <c r="E40" t="n">
-        <v>126.70036067717</v>
+        <v>182.1761681670855</v>
       </c>
       <c r="F40" t="n">
-        <v>126.70036067717</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="G40" t="n">
-        <v>126.70036067717</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="H40" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7356,28 +7356,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R40" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S40" t="n">
-        <v>1644.20354800875</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T40" t="n">
-        <v>1434.451719820137</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U40" t="n">
-        <v>1181.450483200946</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V40" t="n">
-        <v>937.3616489751524</v>
+        <v>992.8374564650679</v>
       </c>
       <c r="W40" t="n">
-        <v>688.0888953187117</v>
+        <v>743.5647028086272</v>
       </c>
       <c r="X40" t="n">
-        <v>479.54194401308</v>
+        <v>535.0177515029955</v>
       </c>
       <c r="Y40" t="n">
-        <v>284.6031562365296</v>
+        <v>340.0789637264451</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C41" t="n">
-        <v>1828.158301917073</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D41" t="n">
-        <v>1423.694372010133</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E41" t="n">
-        <v>1009.35415652703</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F41" t="n">
-        <v>588.3237444807176</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G41" t="n">
-        <v>179.5954603735497</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H41" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
@@ -7438,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T41" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U41" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V41" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W41" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X41" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y41" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>754.331869609911</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M42" t="n">
-        <v>754.331869609911</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N42" t="n">
-        <v>1627.989961721529</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O42" t="n">
-        <v>1627.989961721529</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P42" t="n">
-        <v>2110.173374178493</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q42" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
         <v>2139.732893541123</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>578.280283388802</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C43" t="n">
-        <v>578.280283388802</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D43" t="n">
-        <v>418.7856387117121</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E43" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F43" t="n">
         <v>93.2436976906228</v>
@@ -7599,22 +7599,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>1383.093855288175</v>
+        <v>1579.776521841699</v>
       </c>
       <c r="U43" t="n">
-        <v>1383.093855288175</v>
+        <v>1296.978374387823</v>
       </c>
       <c r="V43" t="n">
-        <v>1109.208110227697</v>
+        <v>1023.092629327345</v>
       </c>
       <c r="W43" t="n">
-        <v>830.1384457365714</v>
+        <v>744.0229648362191</v>
       </c>
       <c r="X43" t="n">
-        <v>765.9799897828464</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y43" t="n">
-        <v>765.9799897828464</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C44" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D44" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E44" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F44" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G44" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H44" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K44" t="n">
         <v>885.5886702674168</v>
@@ -7675,25 +7675,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T44" t="n">
-        <v>4351.007589961326</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U44" t="n">
-        <v>4093.947098220835</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V44" t="n">
-        <v>3744.109543557316</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W44" t="n">
-        <v>3360.349242692484</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X44" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y44" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M45" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N45" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O45" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P45" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R45" t="n">
         <v>2139.732893541123</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>734.3499851322201</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="C46" t="n">
-        <v>563.2566126939366</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="D46" t="n">
-        <v>403.7619680168467</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="E46" t="n">
-        <v>242.8511528851661</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F46" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G46" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
         <v>93.2436976906228</v>
@@ -7836,22 +7836,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U46" t="n">
-        <v>1339.844446857597</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V46" t="n">
-        <v>1065.958701797119</v>
+        <v>1000.024048822709</v>
       </c>
       <c r="W46" t="n">
-        <v>1065.958701797119</v>
+        <v>720.9543843315835</v>
       </c>
       <c r="X46" t="n">
-        <v>827.6148396568026</v>
+        <v>482.6105221912669</v>
       </c>
       <c r="Y46" t="n">
-        <v>827.6148396568026</v>
+        <v>257.8748235800315</v>
       </c>
     </row>
   </sheetData>
@@ -7981,13 +7981,13 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>516.2162236769913</v>
+        <v>303.9159391830239</v>
       </c>
       <c r="L2" t="n">
-        <v>351.2312563499918</v>
+        <v>522.5652320666179</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>520.3700584608185</v>
       </c>
       <c r="N2" t="n">
         <v>92.91229075661933</v>
@@ -7996,13 +7996,13 @@
         <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>520.7291972846583</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,22 +8060,22 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>482.9056167883885</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>315.0216312432464</v>
       </c>
       <c r="M3" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>480.2732273975242</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>316.6585864323991</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>481.3394690065779</v>
+        <v>481.3394690065768</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>208.9223179663055</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328704</v>
+        <v>555.4891820648243</v>
       </c>
       <c r="M5" t="n">
         <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
         <v>128.2784515920617</v>
@@ -8294,10 +8294,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>203.4176284083942</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
         <v>578.1780941808746</v>
@@ -8306,19 +8306,19 @@
         <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>498.2302468367832</v>
       </c>
       <c r="O6" t="n">
         <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8458,19 +8458,19 @@
         <v>611.1999600432426</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>594.2603172363631</v>
       </c>
       <c r="N8" t="n">
         <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
-        <v>594.1598684051008</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
         <v>90.03380439915205</v>
@@ -8531,22 +8531,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>173.8482690683349</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>564.4415429491208</v>
       </c>
       <c r="P9" t="n">
         <v>576.3232053728293</v>
@@ -8698,7 +8698,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>877.4504173780091</v>
+        <v>877.4504173780092</v>
       </c>
       <c r="N11" t="n">
         <v>853.701196452193</v>
@@ -8768,19 +8768,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>204.5506456092455</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>701.4825071992079</v>
       </c>
       <c r="O12" t="n">
         <v>57.751479</v>
@@ -8792,7 +8792,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8944,7 +8944,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>628.1510783507342</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
         <v>414.4388617681339</v>
@@ -9014,7 +9014,7 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>418.5520878360603</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
         <v>53.19339339374999</v>
@@ -9023,10 +9023,10 @@
         <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>410.0708656603775</v>
+        <v>203.6789803756668</v>
       </c>
       <c r="R15" t="n">
         <v>88.85829947169823</v>
@@ -9172,7 +9172,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M17" t="n">
-        <v>877.4504173780091</v>
+        <v>877.4504173780092</v>
       </c>
       <c r="N17" t="n">
         <v>853.701196452193</v>
@@ -9184,7 +9184,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
         <v>128.2784515920617</v>
@@ -9245,7 +9245,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>339.7023577301357</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
         <v>723.8803540323523</v>
@@ -9263,7 +9263,7 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>410.0708656603775</v>
+        <v>233.5370807419598</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9403,7 +9403,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L20" t="n">
         <v>815.2746908024792</v>
@@ -9424,7 +9424,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M21" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>841.9067396726143</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O23" t="n">
-        <v>743.3219538248791</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P23" t="n">
         <v>628.1510783507341</v>
@@ -9716,28 +9716,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>234.4087459755385</v>
       </c>
       <c r="N24" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>205.4824228069005</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9953,28 +9953,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>529.7246381472005</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M27" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10190,13 +10190,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>384.4175102257753</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M30" t="n">
         <v>57.56428373841742</v>
@@ -10205,13 +10205,13 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10372,7 +10372,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
-        <v>128.2784515920609</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,28 +10427,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M33" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>741.5205988334646</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10606,10 +10606,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q35" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,28 +10664,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>68.59220973220897</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>88.85829947169823</v>
@@ -10901,13 +10901,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>530.8574584041916</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
         <v>909.0562844399999</v>
@@ -10916,16 +10916,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>409.835129286669</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
         <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>541.3135869795351</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K44" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
         <v>815.2746908024792</v>
@@ -11375,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>85.68364371037917</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.92104941501638</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>48.00345006673251</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>151.55470620417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,7 +23655,7 @@
         <v>156.323767603766</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D16" t="n">
         <v>128.4007565039811</v>
@@ -23667,13 +23667,13 @@
         <v>133.4858729041767</v>
       </c>
       <c r="G16" t="n">
-        <v>86.51657846449</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H16" t="n">
-        <v>118.6124389162599</v>
+        <v>14.85021866619279</v>
       </c>
       <c r="I16" t="n">
-        <v>85.68364371037913</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>78.05558599223113</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>129.8027652540258</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23940,19 +23940,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>155.0289087125509</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>207.654309906727</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>139.0523433138175</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F22" t="n">
         <v>133.4858729041767</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>52.56154735369884</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,19 +24177,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0.4343901732993629</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>207.654309906727</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D25" t="n">
-        <v>5.964811419762995</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E25" t="n">
         <v>129.8027652540258</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G25" t="n">
-        <v>136.078945437374</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H25" t="n">
-        <v>118.6124389162599</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I25" t="n">
-        <v>85.68364371037913</v>
+        <v>52.56154735369884</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>155.0289087125509</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>207.654309906727</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>156.3237676037659</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F28" t="n">
         <v>133.4858729041766</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>52.56154735369732</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.92104941501631</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>59.45778765179818</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>241.6479458835352</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>44.86348623556725</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H31" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>85.68364371037907</v>
+        <v>85.68364371037909</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.92104941501633</v>
       </c>
       <c r="S31" t="n">
         <v>155.0289087125508</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>199.45896617503</v>
       </c>
       <c r="V31" t="n">
-        <v>241.6479458835352</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>156.3237676037659</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>139.8834969875626</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E34" t="n">
         <v>129.8027652540257</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G34" t="n">
-        <v>111.1147179768302</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>52.56154735369732</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>54.92104941501631</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>246.7800261198763</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G37" t="n">
         <v>136.078945437374</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>54.92104941501631</v>
       </c>
       <c r="S37" t="n">
-        <v>40.32526113333836</v>
+        <v>41.75961948232774</v>
       </c>
       <c r="T37" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>129.8027652540257</v>
       </c>
       <c r="F40" t="n">
-        <v>133.4858729041766</v>
+        <v>131.1263708428576</v>
       </c>
       <c r="G40" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H40" t="n">
-        <v>85.49034255957811</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I40" t="n">
-        <v>85.68364371037907</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>54.92104941501631</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>134.6847134965116</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
@@ -25839,10 +25839,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>194.7158398879884</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>172.4435521247257</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>45.84716204233442</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>3.083197172522944</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>93.49050335076731</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
         <v>115.1825854367171</v>
@@ -26076,22 +26076,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>171.877945188399</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>539705.7750657653</v>
+        <v>539705.7750657651</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>561911.7891184591</v>
+        <v>561911.7891184592</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>561911.7891184592</v>
+        <v>561911.7891184591</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>561911.7891184592</v>
+        <v>561911.7891184591</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>561911.7891184591</v>
+        <v>561911.7891184593</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>561911.7891184591</v>
+        <v>561911.7891184592</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>561911.7891184591</v>
+        <v>561911.7891184593</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>522836.4761441564</v>
+        <v>522836.4761441565</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>651529.5721298279</v>
+        <v>651529.5721298284</v>
       </c>
       <c r="C2" t="n">
-        <v>651529.5721298282</v>
+        <v>651529.5721298283</v>
       </c>
       <c r="D2" t="n">
-        <v>651529.572129828</v>
+        <v>651529.5721298283</v>
       </c>
       <c r="E2" t="n">
-        <v>631397.7523692572</v>
+        <v>631397.7523692575</v>
       </c>
       <c r="F2" t="n">
-        <v>631397.7523692573</v>
+        <v>631397.7523692574</v>
       </c>
       <c r="G2" t="n">
+        <v>631397.7523692574</v>
+      </c>
+      <c r="H2" t="n">
         <v>631397.7523692575</v>
       </c>
-      <c r="H2" t="n">
-        <v>631397.7523692573</v>
-      </c>
       <c r="I2" t="n">
+        <v>631397.7523692574</v>
+      </c>
+      <c r="J2" t="n">
         <v>631397.7523692576</v>
-      </c>
-      <c r="J2" t="n">
-        <v>631397.7523692572</v>
       </c>
       <c r="K2" t="n">
         <v>631397.7523692573</v>
       </c>
       <c r="L2" t="n">
+        <v>631397.7523692574</v>
+      </c>
+      <c r="M2" t="n">
         <v>631397.7523692573</v>
       </c>
-      <c r="M2" t="n">
-        <v>631397.7523692574</v>
-      </c>
       <c r="N2" t="n">
-        <v>631397.7523692575</v>
+        <v>631397.7523692573</v>
       </c>
       <c r="O2" t="n">
-        <v>579297.3350701875</v>
+        <v>579297.3350701876</v>
       </c>
       <c r="P2" t="n">
         <v>579297.3350701875</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143124.2752108468</v>
+        <v>143124.2752108464</v>
       </c>
       <c r="C3" t="n">
-        <v>30686.46086668798</v>
+        <v>30686.46086668833</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215728.9162805136</v>
+        <v>215728.9162805135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>135342.0294691539</v>
+        <v>135342.0294691536</v>
       </c>
       <c r="K3" t="n">
-        <v>24445.77426110939</v>
+        <v>24445.77426110966</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>160358.4505006828</v>
+        <v>160358.4505006827</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>231775.9773255659</v>
+        <v>231775.9773255661</v>
       </c>
       <c r="C4" t="n">
         <v>213059.5462795911</v>
@@ -26453,7 +26453,7 @@
         <v>118911.6321885296</v>
       </c>
       <c r="N4" t="n">
-        <v>118911.6321885296</v>
+        <v>118911.6321885295</v>
       </c>
       <c r="O4" t="n">
         <v>89101.60277166063</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59594.05390742946</v>
+        <v>59594.05390742941</v>
       </c>
       <c r="C5" t="n">
         <v>65369.06507849755</v>
@@ -26499,7 +26499,7 @@
         <v>73345.15677686484</v>
       </c>
       <c r="L5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="M5" t="n">
         <v>73345.15677686484</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>217035.2656859857</v>
+        <v>217035.2656859864</v>
       </c>
       <c r="C6" t="n">
-        <v>342414.4999050515</v>
+        <v>342414.4999050513</v>
       </c>
       <c r="D6" t="n">
-        <v>373100.9607717394</v>
+        <v>373100.9607717397</v>
       </c>
       <c r="E6" t="n">
-        <v>223412.0471233493</v>
+        <v>223361.7175739483</v>
       </c>
       <c r="F6" t="n">
-        <v>439140.9634038629</v>
+        <v>439090.6338544617</v>
       </c>
       <c r="G6" t="n">
-        <v>439140.9634038632</v>
+        <v>439090.6338544617</v>
       </c>
       <c r="H6" t="n">
-        <v>439140.9634038629</v>
+        <v>439090.6338544618</v>
       </c>
       <c r="I6" t="n">
-        <v>439140.9634038633</v>
+        <v>439090.6338544617</v>
       </c>
       <c r="J6" t="n">
-        <v>303798.9339347088</v>
+        <v>303748.6043853082</v>
       </c>
       <c r="K6" t="n">
-        <v>414695.1891427535</v>
+        <v>414644.8595933518</v>
       </c>
       <c r="L6" t="n">
-        <v>439140.9634038629</v>
+        <v>439090.6338544615</v>
       </c>
       <c r="M6" t="n">
-        <v>278782.5129031802</v>
+        <v>278732.1833537787</v>
       </c>
       <c r="N6" t="n">
-        <v>439140.9634038631</v>
+        <v>439090.6338544615</v>
       </c>
       <c r="O6" t="n">
-        <v>419330.5220536535</v>
+        <v>419149.9414610045</v>
       </c>
       <c r="P6" t="n">
-        <v>419330.5220536535</v>
+        <v>419149.9414610044</v>
       </c>
     </row>
   </sheetData>
@@ -26694,28 +26694,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F2" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G2" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H2" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I2" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="K2" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="L2" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="M2" t="n">
         <v>29.49894172633803</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.0798340037742</v>
+        <v>427.0798340037731</v>
       </c>
       <c r="C4" t="n">
         <v>522.0635703700256</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.0798340037742</v>
+        <v>427.0798340037731</v>
       </c>
       <c r="C4" t="n">
-        <v>94.98373636625138</v>
+        <v>94.98373636625246</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.0798340037742</v>
+        <v>427.0798340037731</v>
       </c>
       <c r="K4" t="n">
-        <v>94.98373636625138</v>
+        <v>94.98373636625246</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.4826507627596</v>
+        <v>643.4826507627595</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.0798340037742</v>
+        <v>427.0798340037731</v>
       </c>
       <c r="K4" t="n">
-        <v>94.98373636625138</v>
+        <v>94.98373636625246</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>7.053681423859246</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>5.09544453526749</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -27469,7 +27469,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27511,13 +27511,13 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>103.9543291284559</v>
       </c>
       <c r="V3" t="n">
-        <v>153.8324932839932</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>17.72095022280627</v>
       </c>
       <c r="G4" t="n">
-        <v>128.7184570846464</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>211.0986994240483</v>
+      </c>
+      <c r="C5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>114.3199026280771</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
@@ -27830,16 +27830,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>30.02381353428947</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>149.9257205862259</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,22 +27855,22 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>51.16042078047508</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>196.4451115369115</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>144.396493901917</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,25 +28061,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>126.9450269688244</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="K13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="L13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="M13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="N13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="O13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="P13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="R13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="S13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y13" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y14" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="K16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="L16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="M16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="N16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="O16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="P16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="R16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="S16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y17" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="K19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="L19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="M19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="N19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="O19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="P19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="R19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="S19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y19" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W20" t="n">
-        <v>29.4989417263377</v>
+        <v>29.49894172633816</v>
       </c>
       <c r="X20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y20" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="K22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="L22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="M22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="N22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="O22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="P22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="R22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="S22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y22" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="C23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="D23" t="n">
-        <v>29.49894172633736</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="E23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="F23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="G23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="H23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="I23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="T23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="U23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="V23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="W23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="X23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Y23" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633793</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="C25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="D25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="E25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="F25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="G25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="H25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="I25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="J25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="K25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="L25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="M25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="N25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="O25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="P25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="R25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="S25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="T25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="U25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="V25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="W25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="X25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Y25" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633793</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="C26" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="D26" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="E26" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="F26" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="G26" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="H26" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="I26" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="T26" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="U26" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="V26" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="W26" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="X26" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="Y26" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="C28" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="D28" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="E28" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="F28" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="G28" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="H28" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="I28" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="J28" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="K28" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="L28" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="M28" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="N28" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="O28" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="P28" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="R28" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="S28" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="T28" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="U28" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="V28" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="W28" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="X28" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="Y28" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="C29" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="D29" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="E29" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="F29" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="G29" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="H29" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="I29" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="T29" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="U29" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="V29" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="W29" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="X29" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="Y29" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="C31" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="D31" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="E31" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="F31" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="G31" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="H31" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="I31" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="J31" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="K31" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="L31" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="M31" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="N31" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="O31" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="P31" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="R31" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="S31" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="T31" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="U31" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="V31" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="W31" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="X31" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="Y31" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="C32" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="D32" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="E32" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="F32" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="G32" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="H32" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="I32" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="T32" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="U32" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="V32" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="W32" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="X32" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="Y32" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="C34" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="D34" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="E34" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="F34" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="G34" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="H34" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="I34" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="J34" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="K34" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="L34" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="M34" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="N34" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="O34" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="P34" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="R34" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="S34" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="T34" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="U34" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="V34" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="W34" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="X34" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
       <c r="Y34" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633802</v>
       </c>
     </row>
     <row r="35">
@@ -30240,7 +30240,7 @@
         <v>29.49894172633803</v>
       </c>
       <c r="H38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633697</v>
       </c>
       <c r="I38" t="n">
         <v>29.49894172633803</v>
@@ -34701,13 +34701,13 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>427.0798340037742</v>
+        <v>214.7795495098067</v>
       </c>
       <c r="L2" t="n">
-        <v>255.745858287147</v>
+        <v>427.0798340037731</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>427.0798340037731</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34716,13 +34716,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>427.0798340037742</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>427.0798340037731</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>258.9071074323974</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>427.0798340037742</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>258.9071074323991</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>427.0798340037742</v>
+        <v>427.0798340037731</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>135.5987266329975</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>522.0635703700256</v>
+        <v>460.0037840019794</v>
       </c>
       <c r="M5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>40.9663087773382</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>147.5918456237788</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>522.0635703700256</v>
@@ -35026,19 +35026,19 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>445.0368534430332</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35178,19 +35178,19 @@
         <v>522.0635703700256</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="N8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O8" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>117.7337452574859</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="P9" t="n">
         <v>522.0635703700256</v>
@@ -35418,7 +35418,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>784.1601929209636</v>
+        <v>784.1601929209637</v>
       </c>
       <c r="N11" t="n">
         <v>760.7889056955737</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>146.9863618708281</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>648.289113805458</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.7237391053385</v>
+        <v>43.72373910533847</v>
       </c>
       <c r="K13" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L13" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M13" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N13" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O13" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P13" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.68887081978326</v>
+        <v>95.68887081978322</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35664,7 +35664,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
         <v>324.4050573689818</v>
@@ -35734,7 +35734,7 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>360.9878040976428</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35743,10 +35743,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.3782471555388</v>
+        <v>146.9863618708281</v>
       </c>
       <c r="R15" t="n">
         <v>29.85810036629282</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.7237391053385</v>
+        <v>43.72373910533847</v>
       </c>
       <c r="K16" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L16" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M16" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N16" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O16" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P16" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q16" t="n">
-        <v>95.68887081978326</v>
+        <v>95.68887081978322</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M17" t="n">
-        <v>784.1601929209636</v>
+        <v>784.1601929209637</v>
       </c>
       <c r="N17" t="n">
         <v>760.7889056955737</v>
@@ -35904,7 +35904,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
         <v>40.9663087773382</v>
@@ -35965,7 +35965,7 @@
         <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>283.8765749455203</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
         <v>667.7658302215033</v>
@@ -35983,7 +35983,7 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>353.3782471555388</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>43.7237391053385</v>
+        <v>43.72373910533847</v>
       </c>
       <c r="K19" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L19" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M19" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N19" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O19" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P19" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.68887081978326</v>
+        <v>95.68887081978322</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L20" t="n">
         <v>719.7892927396343</v>
@@ -36144,7 +36144,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>788.7133462788644</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>43.7237391053385</v>
+        <v>43.72373910533847</v>
       </c>
       <c r="K22" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L22" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M22" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N22" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O22" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P22" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q22" t="n">
-        <v>95.68887081978326</v>
+        <v>95.68887081978322</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36372,7 +36372,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O23" t="n">
-        <v>650.132178199096</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P23" t="n">
         <v>534.50171506985</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>151.2227878040968</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>43.7237391053385</v>
+        <v>43.72373910533846</v>
       </c>
       <c r="K25" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L25" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M25" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N25" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O25" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P25" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q25" t="n">
-        <v>95.68887081978326</v>
+        <v>95.68887081978322</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>473.6101143363514</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36773,7 +36773,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q28" t="n">
-        <v>95.68887081978332</v>
+        <v>95.6888708197833</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>328.3029864149263</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36925,13 +36925,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37010,7 +37010,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q31" t="n">
-        <v>95.68887081978332</v>
+        <v>95.6888708197833</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R32" t="n">
-        <v>40.96630877733737</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>688.3272054397147</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37247,7 +37247,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q34" t="n">
-        <v>95.68887081978332</v>
+        <v>95.6888708197833</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37326,10 +37326,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q35" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>14.33257472940522</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>29.85810036629282</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>474.7429345933425</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
         <v>851.4920007015825</v>
@@ -37636,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.1425107818303</v>
       </c>
       <c r="R39" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>487.0539519767314</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K44" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
         <v>719.7892927396343</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M45" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
